--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y259"/>
+  <dimension ref="A1:Y260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
       </c>
       <c r="R258" s="2" t="inlineStr"/>
     </row>
-    <row r="259">
+    <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
           <t>A 39644-2023</t>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16198,6 +16198,63 @@
         <v>0</v>
       </c>
       <c r="R259" s="2" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>A 42025-2023</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>SÄTER</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,31 +636,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 30752-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 30752-2021.xlsx", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 30752-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 30752-2021.png", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 30752-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 30752-2021.png", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 30752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 30752-2021.docx", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 30752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 30752-2021.docx", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 30752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 30752-2021.docx", "A 30752-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 30752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 30752-2021.docx", "A 30752-2021")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 52711-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 52711-2020.xlsx", "A 52711-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 52711-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 52711-2020.png", "A 52711-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 52711-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 52711-2020.docx", "A 52711-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 52711-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 52711-2020.docx", "A 52711-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 52711-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 52711-2020.docx", "A 52711-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 52711-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 52711-2020.docx", "A 52711-2020")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 25699-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 25699-2022.xlsx", "A 25699-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 25699-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 25699-2022.png", "A 25699-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 25699-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 25699-2022.docx", "A 25699-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 25699-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 25699-2022.docx", "A 25699-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 25699-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 25699-2022.docx", "A 25699-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 25699-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 25699-2022.docx", "A 25699-2022")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,27 +912,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 23464-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 23464-2023.xlsx", "A 23464-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 23464-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 23464-2023.png", "A 23464-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 23464-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 23464-2023.docx", "A 23464-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 23464-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 23464-2023.docx", "A 23464-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 23464-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 23464-2023.docx", "A 23464-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 23464-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 23464-2023.docx", "A 23464-2023")</f>
         <v/>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,27 +1004,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 35916-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 35916-2022.xlsx", "A 35916-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 35916-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 35916-2022.png", "A 35916-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 35916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 35916-2022.docx", "A 35916-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 35916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 35916-2022.docx", "A 35916-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 35916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 35916-2022.docx", "A 35916-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 35916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 35916-2022.docx", "A 35916-2022")</f>
         <v/>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 29925-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 29925-2023.xlsx", "A 29925-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 29925-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 29925-2023.png", "A 29925-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 29925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 29925-2023.docx", "A 29925-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 29925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 29925-2023.docx", "A 29925-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 29925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 29925-2023.docx", "A 29925-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 29925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 29925-2023.docx", "A 29925-2023")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,31 +1187,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 27374-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 27374-2022.xlsx", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 27374-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 27374-2022.png", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 27374-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 27374-2022.png", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 27374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 27374-2022.docx", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 27374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 27374-2022.docx", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 27374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 27374-2022.docx", "A 27374-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 27374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 27374-2022.docx", "A 27374-2022")</f>
         <v/>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,27 +1282,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 29296-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 29296-2023.xlsx", "A 29296-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 29296-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 29296-2023.png", "A 29296-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 29296-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 29296-2023.docx", "A 29296-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 29296-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 29296-2023.docx", "A 29296-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 29296-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 29296-2023.docx", "A 29296-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 29296-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 29296-2023.docx", "A 29296-2023")</f>
         <v/>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,27 +1367,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 1103-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 1103-2019.xlsx", "A 1103-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 1103-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 1103-2019.png", "A 1103-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 1103-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 1103-2019.docx", "A 1103-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 1103-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 1103-2019.docx", "A 1103-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 1103-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 1103-2019.docx", "A 1103-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 1103-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 1103-2019.docx", "A 1103-2019")</f>
         <v/>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,27 +1457,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 34337-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 34337-2020.xlsx", "A 34337-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 34337-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 34337-2020.png", "A 34337-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 34337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 34337-2020.docx", "A 34337-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 34337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 34337-2020.docx", "A 34337-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 34337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 34337-2020.docx", "A 34337-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 34337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 34337-2020.docx", "A 34337-2020")</f>
         <v/>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,27 +1542,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 6639-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 6639-2021.xlsx", "A 6639-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 6639-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 6639-2021.png", "A 6639-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 6639-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 6639-2021.docx", "A 6639-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 6639-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 6639-2021.docx", "A 6639-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 6639-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 6639-2021.docx", "A 6639-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 6639-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 6639-2021.docx", "A 6639-2021")</f>
         <v/>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,31 +1627,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 68448-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 68448-2021.xlsx", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 68448-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 68448-2021.png", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 68448-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 68448-2021.png", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 68448-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 68448-2021.docx", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 68448-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 68448-2021.docx", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 68448-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 68448-2021.docx", "A 68448-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 68448-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 68448-2021.docx", "A 68448-2021")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1721,27 +1721,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 25675-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 25675-2022.xlsx", "A 25675-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 25675-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 25675-2022.png", "A 25675-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 25675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 25675-2022.docx", "A 25675-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 25675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 25675-2022.docx", "A 25675-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 25675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 25675-2022.docx", "A 25675-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 25675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 25675-2022.docx", "A 25675-2022")</f>
         <v/>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,27 +1811,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 35910-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 35910-2022.xlsx", "A 35910-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 35910-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 35910-2022.png", "A 35910-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 35910-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 35910-2022.docx", "A 35910-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 35910-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 35910-2022.docx", "A 35910-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 35910-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 35910-2022.docx", "A 35910-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 35910-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 35910-2022.docx", "A 35910-2022")</f>
         <v/>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,27 +1896,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 60085-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 60085-2022.xlsx", "A 60085-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 60085-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 60085-2022.png", "A 60085-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 60085-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 60085-2022.docx", "A 60085-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 60085-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 60085-2022.docx", "A 60085-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 60085-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 60085-2022.docx", "A 60085-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 60085-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 60085-2022.docx", "A 60085-2022")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,27 +1986,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 60954-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 60954-2022.xlsx", "A 60954-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 60954-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 60954-2022.png", "A 60954-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 60954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 60954-2022.docx", "A 60954-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 60954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 60954-2022.docx", "A 60954-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 60954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 60954-2022.docx", "A 60954-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 60954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 60954-2022.docx", "A 60954-2022")</f>
         <v/>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,31 +2071,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 3528-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 3528-2023.xlsx", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 3528-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 3528-2023.png", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 3528-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/knärot/A 3528-2023.png", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 3528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 3528-2023.docx", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 3528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 3528-2023.docx", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 3528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 3528-2023.docx", "A 3528-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 3528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 3528-2023.docx", "A 3528-2023")</f>
         <v/>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,27 +2160,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 27715-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/artfynd/A 27715-2023.xlsx", "A 27715-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 27715-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/kartor/A 27715-2023.png", "A 27715-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 27715-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomål/A 27715-2023.docx", "A 27715-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 27715-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/klagomålsmail/A 27715-2023.docx", "A 27715-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 27715-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsyn/A 27715-2023.docx", "A 27715-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 27715-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SATER/tillsynsmail/A 27715-2023.docx", "A 27715-2023")</f>
         <v/>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y260"/>
+  <dimension ref="A1:Y261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="R259" s="2" t="inlineStr"/>
     </row>
-    <row r="260">
+    <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
           <t>A 42025-2023</t>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16255,6 +16255,63 @@
         <v>0</v>
       </c>
       <c r="R260" s="2" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>A 44803-2023</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>SÄTER</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45190</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45190</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45190</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45190</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -572,7 +572,7 @@
         <v>44365</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45076</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44802</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44742</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44032</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44236</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44529</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44732</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44914</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44950</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43423</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43429</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43431</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43439</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43476</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43495</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43504</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43509</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43514</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43531</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43541</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43616</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43633</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43633</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43655</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43696</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43699</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43711</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43731</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43753</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43773</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43780</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43781</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43801</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43801</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43822</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43900</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43907</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43907</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43907</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43907</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43907</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43910</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43941</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43948</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43976</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43990</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44007</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44011</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44011</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44013</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44081</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44103</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44136</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44154</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44168</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44168</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44168</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44175</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44175</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44215</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44308</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44327</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44378</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44413</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44446</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44463</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44500</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>44503</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44529</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44621</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44688</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44691</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44725</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44739</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44748</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44748</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44781</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44783</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44819</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44830</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44854</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44866</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44876</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44882</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44896</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44896</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44908</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44956</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44960</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44972</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44978</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44978</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44982</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44982</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45049</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45054</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45077</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45098</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45098</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45105</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45107</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45114</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45119</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45119</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45120</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45126</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45126</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45127</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45140</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45145</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45177</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45190</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
